--- a/biology/Botanique/Forêt_de_Beynes/Forêt_de_Beynes.xlsx
+++ b/biology/Botanique/Forêt_de_Beynes/Forêt_de_Beynes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Beynes</t>
+          <t>Forêt_de_Beynes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de domaniale de Beynes se trouve dans les Yvelines (France), sur les communes de Beynes et Saulx-Marchais.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Beynes</t>
+          <t>Forêt_de_Beynes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt a été autrefois un massif très giboyeux, les premiers tracés de route de chasse datent de François Ier dont les maîtresses habitaient Beynes[2].
-La forêt a pu être aménagée dès le XVe siècle par Guillaume d'Estouteville, seigneur de Beynes que quelques auteurs[Qui ?] ont dit avoir été grand-maître &amp; général réformateur des eaux et forêts de France vers 1425[3].
-En 1923, la famille Chabannes la Palice vend la forêt à David David-Weill, banquier[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt a été autrefois un massif très giboyeux, les premiers tracés de route de chasse datent de François Ier dont les maîtresses habitaient Beynes.
+La forêt a pu être aménagée dès le XVe siècle par Guillaume d'Estouteville, seigneur de Beynes que quelques auteurs[Qui ?] ont dit avoir été grand-maître &amp; général réformateur des eaux et forêts de France vers 1425.
+En 1923, la famille Chabannes la Palice vend la forêt à David David-Weill, banquier.
 Le 30 décembre 1943, l’État français acquiert la forêt pour la somme de neuf millions cinquante mille francs.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Beynes</t>
+          <t>Forêt_de_Beynes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chêne (92 %) est l'essence majoritaire de cette forêt domaniale. Parmi les essences minoritaires l'on rencontre le hêtre et le charme (3 %), le bouleau et le tremble (3 %), des fruitiers, et des ormes et divers (2 %).
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Beynes</t>
+          <t>Forêt_de_Beynes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Installations gazières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt est ponctuée d'installations gazières reliées au centre de stockage souterrain et à la station de compression de Beynes[5],[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt est ponctuée d'installations gazières reliées au centre de stockage souterrain et à la station de compression de Beynes.
 </t>
         </is>
       </c>
